--- a/기획재정부/기획재정부.xlsx
+++ b/기획재정부/기획재정부.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,12 +425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1822,108 +1822,775 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>「월간 재정동향」 2024년 10월호 발간</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>재정건전성과</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024.10.10.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027308</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027308&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[보도참고] 한국, FTSE Russell 세계국채지수(WGBI) 편입</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>국채과</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024.10.09.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027295</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027295&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>배달플랫폼-입점업체 상생협의체 제6차 회의 개최</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>정책조정총괄과</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024.10.08.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027305&amp;fileSn=1</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027305&amp;fileSn=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>제9차 부동산 시장 및 공급상황 점검 TF 개최</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>경제분석과</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024.10.08.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027292</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027292&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>제16회 국제금융기구 채용설명회 사전 등록 및 채용 면접 신청 안내</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>국제기구과</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024.10.07.</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027278</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027278&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>한-필리핀 정상회담 계기 대외경제협력기금으로 필리핀 초대형 인프라 사업 추진에 합의</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>개발전략과</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024.10.07.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027276</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027276&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>중장기전략위원회 주최 "미래전략포럼"에서 저탄소 경제 이행을 위한 정책 과제 논의</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>미래전략과</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024.10.07.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027281</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027281&amp;fileSn=5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>세계은행, 아시아개발은행 등 다자개발은행 조달설명회 참가 기업 모집</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>국제기구과</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024.10.07.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027285</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027285&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>김윤상 2차관, 글로벌 물류 허브 도약의 핵심인 부산 신항, 가덕도 신공항 현장 방문</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>재정정책협력과</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024.10.04.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027271</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027271&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>일본 신임 내각 구성에 따른 경제협력 방향 및 최근 중국 경제 동향 논의</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>대외경제총괄과</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024.10.04.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027280</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=pRFwS4bS9CaKMtdhoyZ9fjYC.node10?atchFileId=ATCH_000000000027280&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>소상공인 지원대책, 현장에서 끝까지 챙긴다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>민생안정지원단</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024.10.04.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027270</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027270&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>공적개발원조 유무상 통합정책협의를 통한 한-라오스 개발협력 강화</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>개발전략과</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024.10.03.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027267</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027267&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10월 국고채 경쟁입찰 8.0조원 발행 계획</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>국채과</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027257</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027257&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>대외 공급망 안정화에 민관이 머리 맞댄다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>통상정책과</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027263</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027263&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>중동 사태 관련 관계기관 합동 시장상황점검회의 개최</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>경제분석과</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027264&amp;fileSn=2</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027264&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>제17기 행복공감봉사단 4차 봉사활동</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>복권총괄과</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027252&amp;fileSn=1</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027252&amp;fileSn=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>공사비 안정화 방안 발표</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>지역경제정책과</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027256</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027256&amp;fileSn=4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>민간투자 활성화방안</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>민간투자정책과</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027260</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027260&amp;fileSn=4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>'24.9월 소비자물가 동향</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>물가정책과</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027255</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027255&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>선진 벤처투자 시장 도약 방안 발표</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>정책조정총괄과</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027254</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027254&amp;fileSn=4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>경제관계장관회의 겸 투자활성화장관회의 개최</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>정책조정총괄과</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2024.10.02.</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027239</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027239&amp;fileSn=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>미래 준비를 위해 청년들의 인식과 고민에 대해 소통</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>미래전략과</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024.09.30.</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027248</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027248&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>최상목 부총리‧이창용 총재, 한국경제의 구조개혁을 주제로 타운홀 미팅 개최</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>거시정책과</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024.09.30.</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027247</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027247&amp;fileSn=2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E12" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E13" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D17" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E17" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E18" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D19" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E19" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E20" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E21" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E23" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D24" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E24" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E25" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E27" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E30" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E31" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D32" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E32" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E33" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D34" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E34" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D35" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E35" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D36" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E36" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D37" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E37" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D38" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E38" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D39" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E39" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D40" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E40" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D41" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E41" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D42" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E42" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D43" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E43" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D44" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E44" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D45" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E45" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D46" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E46" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D47" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E47" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D48" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E48" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D49" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E49" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D50" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E50" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D51" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E51" r:id="rId100"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="E21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="E22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="E25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="E26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="E27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="E28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="E29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="E30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="E31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="E32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="E33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="E34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="E35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="E36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="E37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="E38" r:id="rId74"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="E39" r:id="rId76"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="E40" r:id="rId78"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="E41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="E42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="E43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="E44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="E45" r:id="rId88"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="E46" r:id="rId90"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="E47" r:id="rId92"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="E48" r:id="rId94"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="E49" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="E50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="E51" r:id="rId100"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="E52" r:id="rId102"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="E53" r:id="rId104"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="E54" r:id="rId106"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="E55" r:id="rId108"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="E56" r:id="rId110"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="E57" r:id="rId112"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="E58" r:id="rId114"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="E59" r:id="rId116"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="E60" r:id="rId118"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="E61" r:id="rId120"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="E62" r:id="rId122"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="E63" r:id="rId124"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="E64" r:id="rId126"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="E65" r:id="rId128"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="E66" r:id="rId130"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="E67" r:id="rId132"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="E68" r:id="rId134"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="E69" r:id="rId136"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="E70" r:id="rId138"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="E71" r:id="rId140"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="E73" r:id="rId144"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="E74" r:id="rId146"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
